--- a/db/servant.xlsx
+++ b/db/servant.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katoyasuyuki/work/workspace/fgo/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasuyukikato/work/workspace/fgo/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E908AB-A07A-3E42-80B1-EC313576F070}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="servant" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="206">
   <si>
     <t>QQQQQ</t>
   </si>
@@ -62,9 +63,6 @@
     <t>アルテラ</t>
   </si>
   <si>
-    <t>ジル・ド・レェ</t>
-  </si>
-  <si>
     <t>シュヴァリエ・デオン</t>
   </si>
   <si>
@@ -92,9 +90,6 @@
     <t>アーラシュ</t>
   </si>
   <si>
-    <t>クー・フーリン/ランサー</t>
-  </si>
-  <si>
     <t>エリザベート・バートリー</t>
   </si>
   <si>
@@ -150,9 +145,6 @@
   </si>
   <si>
     <t>諸葛孔明〔エルメロイⅡ世〕</t>
-  </si>
-  <si>
-    <t>クー・フーリン</t>
   </si>
   <si>
     <t>佐々木小次郎</t>
@@ -643,14 +635,33 @@
   </si>
   <si>
     <t>QAABB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジル・ド・レェ[セイバー]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クー・フーリン[ランサー]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジル・ド・レェ[キャスター]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クー・フーリン[キャスター]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -665,6 +676,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,8 +705,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -698,6 +719,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,16 +989,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G200"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1">
         <v>0</v>
       </c>
@@ -996,8 +1029,29 @@
       <c r="G1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -1005,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -1014,13 +1068,34 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="22">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1042,8 +1117,29 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="2">
+        <v>11516</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7815</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="22">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1065,8 +1161,29 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2">
+        <v>15150</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11221</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="22">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1088,8 +1205,29 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2">
+        <v>11589</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10248</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="22">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1111,8 +1249,29 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2">
+        <v>10623</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7726</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="22">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1134,8 +1293,29 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2">
+        <v>11753</v>
+      </c>
+      <c r="I7" s="2">
+        <v>9449</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="22">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1157,8 +1337,29 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="2">
+        <v>14165</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8181</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="22">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1180,8 +1381,29 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="2">
+        <v>9595</v>
+      </c>
+      <c r="I9" s="2">
+        <v>7497</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="22">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1203,8 +1425,29 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="2">
+        <v>13907</v>
+      </c>
+      <c r="I10" s="2">
+        <v>12343</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="22">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1212,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1226,8 +1469,29 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="2">
+        <v>10498</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6615</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="22">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1235,7 +1499,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1249,8 +1513,29 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="2">
+        <v>13256</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8765</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="22">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1258,22 +1543,43 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="2">
+        <v>11521</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9398</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>2</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="22">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1281,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1295,8 +1601,29 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="2">
+        <v>13097</v>
+      </c>
+      <c r="I14" s="2">
+        <v>12280</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="22">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1304,22 +1631,43 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="2">
+        <v>10187</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6715</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="22">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1327,7 +1675,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1336,13 +1684,34 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="2">
+        <v>12476</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8633</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
+      <c r="N16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="22">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1350,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1359,13 +1728,34 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="2">
+        <v>9506</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7032</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="22">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1373,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1387,8 +1777,29 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="2">
+        <v>7122</v>
+      </c>
+      <c r="I18" s="2">
+        <v>5816</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="22">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1396,7 +1807,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1410,8 +1821,29 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="2">
+        <v>9593</v>
+      </c>
+      <c r="I19" s="2">
+        <v>7239</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1419,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1433,8 +1865,29 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="2">
+        <v>11870</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9122</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1442,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1451,13 +1904,34 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="2">
+        <v>9149</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5801</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="22">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1465,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -1479,8 +1953,29 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="2">
+        <v>10098</v>
+      </c>
+      <c r="I22" s="2">
+        <v>7082</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="22">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1488,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1502,8 +1997,29 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="2">
+        <v>7959</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6583</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>2</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="22">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1511,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1525,8 +2041,29 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="2">
+        <v>9883</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7239</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="22">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1534,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1543,13 +2080,34 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="2">
+        <v>8937</v>
+      </c>
+      <c r="I25" s="2">
+        <v>7200</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="L25" s="3">
+        <v>2</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1557,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1566,13 +2124,34 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="2">
+        <v>9200</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5236</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>2</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1580,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1594,8 +2173,29 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="2">
+        <v>7907</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6188</v>
+      </c>
+      <c r="J27" s="3">
+        <v>3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>2</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="22">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1603,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -1612,13 +2212,34 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="2">
+        <v>10130</v>
+      </c>
+      <c r="I28" s="2">
+        <v>6289</v>
+      </c>
+      <c r="J28" s="3">
+        <v>2</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3">
+        <v>2</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="22">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1626,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1635,13 +2256,34 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="2">
+        <v>9028</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7076</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1649,7 +2291,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -1658,13 +2300,34 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="2">
+        <v>8640</v>
+      </c>
+      <c r="I30" s="2">
+        <v>7356</v>
+      </c>
+      <c r="J30" s="3">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2</v>
+      </c>
+      <c r="M30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="22">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1672,7 +2335,7 @@
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -1681,13 +2344,34 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="2">
+        <v>12348</v>
+      </c>
+      <c r="I31" s="2">
+        <v>8293</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2</v>
+      </c>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="22">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1695,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -1704,13 +2388,34 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="2">
+        <v>13068</v>
+      </c>
+      <c r="I32" s="2">
+        <v>8014</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="22">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1718,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -1727,13 +2432,34 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="2">
+        <v>8643</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7418</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3">
+        <v>2</v>
+      </c>
+      <c r="M33" s="3">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="22">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1741,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -1750,13 +2476,34 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="2">
+        <v>9506</v>
+      </c>
+      <c r="I34" s="2">
+        <v>6514</v>
+      </c>
+      <c r="J34" s="3">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" s="3">
+        <v>3</v>
+      </c>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="22">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1764,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -1773,13 +2520,34 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="2">
+        <v>8484</v>
+      </c>
+      <c r="I35" s="2">
+        <v>5758</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="22">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1787,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -1796,13 +2564,34 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="2">
+        <v>8080</v>
+      </c>
+      <c r="I36" s="2">
+        <v>5798</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>3</v>
+      </c>
+      <c r="N36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="22">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1810,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -1819,13 +2608,34 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="2">
+        <v>9216</v>
+      </c>
+      <c r="I37" s="2">
+        <v>6839</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="22">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1833,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1842,13 +2652,34 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="2">
+        <v>7129</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5195</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>2</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="22">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1856,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -1865,13 +2696,34 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="2">
+        <v>14259</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10598</v>
+      </c>
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="22">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1879,7 +2731,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -1888,13 +2740,34 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="2">
+        <v>9604</v>
+      </c>
+      <c r="I40" s="2">
+        <v>6580</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>2</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="22">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1902,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -1911,13 +2784,34 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="2">
+        <v>6220</v>
+      </c>
+      <c r="I41" s="2">
+        <v>5735</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
+      </c>
+      <c r="L41" s="3">
+        <v>2</v>
+      </c>
+      <c r="M41" s="3">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="22">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1925,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -1934,13 +2828,34 @@
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="2">
+        <v>7594</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6280</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="22">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1948,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1957,13 +2872,34 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="2">
+        <v>11518</v>
+      </c>
+      <c r="I43" s="2">
+        <v>8985</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2</v>
+      </c>
+      <c r="M43" s="3">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="22">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1971,7 +2907,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>5</v>
@@ -1980,13 +2916,34 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="2">
+        <v>8293</v>
+      </c>
+      <c r="I44" s="2">
+        <v>7207</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>2</v>
+      </c>
+      <c r="M44" s="3">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="22">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1994,7 +2951,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -2003,13 +2960,34 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="2">
+        <v>8309</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5456</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2</v>
+      </c>
+      <c r="K45" s="3">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2</v>
+      </c>
+      <c r="M45" s="3">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="22">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2017,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D46">
         <v>5</v>
@@ -2026,13 +3004,34 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="2">
+        <v>8393</v>
+      </c>
+      <c r="I46" s="2">
+        <v>5654</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2</v>
+      </c>
+      <c r="L46" s="3">
+        <v>2</v>
+      </c>
+      <c r="M46" s="3">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="22">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2040,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -2049,13 +3048,34 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="2">
+        <v>6565</v>
+      </c>
+      <c r="I47" s="2">
+        <v>5377</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3">
+        <v>1</v>
+      </c>
+      <c r="L47" s="3">
+        <v>2</v>
+      </c>
+      <c r="M47" s="3">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="22">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2063,7 +3083,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -2072,13 +3092,34 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="2">
+        <v>10473</v>
+      </c>
+      <c r="I48" s="2">
+        <v>9408</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2</v>
+      </c>
+      <c r="M48" s="3">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="22">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2086,7 +3127,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -2095,13 +3136,34 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="2">
+        <v>10327</v>
+      </c>
+      <c r="I49" s="2">
+        <v>10655</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1</v>
+      </c>
+      <c r="L49" s="3">
+        <v>2</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="22">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2109,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -2118,13 +3180,34 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="2">
+        <v>10327</v>
+      </c>
+      <c r="I50" s="2">
+        <v>10477</v>
+      </c>
+      <c r="J50" s="3">
+        <v>2</v>
+      </c>
+      <c r="K50" s="3">
+        <v>1</v>
+      </c>
+      <c r="L50" s="3">
+        <v>2</v>
+      </c>
+      <c r="M50" s="3">
+        <v>3</v>
+      </c>
+      <c r="N50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="22">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2132,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51">
         <v>7</v>
@@ -2141,13 +3224,34 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="2">
+        <v>8302</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8119</v>
+      </c>
+      <c r="J51" s="3">
+        <v>2</v>
+      </c>
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2</v>
+      </c>
+      <c r="M51" s="3">
+        <v>3</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="22">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2155,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D52">
         <v>7</v>
@@ -2164,13 +3268,34 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="2">
+        <v>7722</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5073</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="22">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2178,7 +3303,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53">
         <v>7</v>
@@ -2187,13 +3312,34 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="2">
+        <v>12150</v>
+      </c>
+      <c r="I53" s="2">
+        <v>12712</v>
+      </c>
+      <c r="J53" s="3">
+        <v>2</v>
+      </c>
+      <c r="K53" s="3">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3">
+        <v>2</v>
+      </c>
+      <c r="M53" s="3">
+        <v>3</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="22">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2201,7 +3347,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D54">
         <v>7</v>
@@ -2215,8 +3361,29 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="2">
+        <v>13770</v>
+      </c>
+      <c r="I54" s="2">
+        <v>11499</v>
+      </c>
+      <c r="J54" s="3">
+        <v>2</v>
+      </c>
+      <c r="K54" s="3">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2</v>
+      </c>
+      <c r="M54" s="3">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="22">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2224,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D55">
         <v>7</v>
@@ -2233,13 +3400,34 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="2">
+        <v>6604</v>
+      </c>
+      <c r="I55" s="2">
+        <v>6037</v>
+      </c>
+      <c r="J55" s="3">
+        <v>3</v>
+      </c>
+      <c r="K55" s="3">
+        <v>1</v>
+      </c>
+      <c r="L55" s="3">
+        <v>2</v>
+      </c>
+      <c r="M55" s="3">
+        <v>3</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="22">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2247,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D56">
         <v>7</v>
@@ -2256,13 +3444,34 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="2">
+        <v>7303</v>
+      </c>
+      <c r="I56" s="2">
+        <v>6831</v>
+      </c>
+      <c r="J56" s="3">
+        <v>3</v>
+      </c>
+      <c r="K56" s="3">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3">
+        <v>2</v>
+      </c>
+      <c r="M56" s="3">
+        <v>3</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="22">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2270,7 +3479,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D57">
         <v>7</v>
@@ -2279,13 +3488,34 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="2">
+        <v>8763</v>
+      </c>
+      <c r="I57" s="2">
+        <v>7608</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2</v>
+      </c>
+      <c r="M57" s="3">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="22">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2293,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -2302,13 +3532,34 @@
         <v>2</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="2">
+        <v>9166</v>
+      </c>
+      <c r="I58" s="2">
+        <v>6644</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2</v>
+      </c>
+      <c r="M58" s="3">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="22">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2316,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59">
         <v>7</v>
@@ -2325,13 +3576,34 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="2">
+        <v>7688</v>
+      </c>
+      <c r="I59" s="2">
+        <v>6290</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2</v>
+      </c>
+      <c r="M59" s="3">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="22">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2339,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>7</v>
@@ -2348,13 +3620,34 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="2">
+        <v>11458</v>
+      </c>
+      <c r="I60" s="2">
+        <v>9026</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2</v>
+      </c>
+      <c r="M60" s="3">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="22">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2362,7 +3655,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>9</v>
@@ -2371,13 +3664,34 @@
         <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="2">
+        <v>16500</v>
+      </c>
+      <c r="I61" s="2">
+        <v>9593</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>2</v>
+      </c>
+      <c r="M61" s="3">
+        <v>3</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="22">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2385,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -2394,13 +3708,34 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="2">
+        <v>14553</v>
+      </c>
+      <c r="I62" s="2">
+        <v>11107</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3">
+        <v>1</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="22">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2408,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -2417,13 +3752,34 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="2">
+        <v>11404</v>
+      </c>
+      <c r="I63" s="2">
+        <v>8616</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3">
+        <v>1</v>
+      </c>
+      <c r="L63" s="3">
+        <v>2</v>
+      </c>
+      <c r="M63" s="3">
+        <v>4</v>
+      </c>
+      <c r="N63" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="22">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2431,7 +3787,7 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -2440,13 +3796,34 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="2">
+        <v>14259</v>
+      </c>
+      <c r="I64" s="2">
+        <v>10546</v>
+      </c>
+      <c r="J64" s="3">
+        <v>5</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1</v>
+      </c>
+      <c r="L64" s="3">
+        <v>3</v>
+      </c>
+      <c r="M64" s="3">
+        <v>4</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="22">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2454,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -2463,13 +3840,34 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="2">
+        <v>8643</v>
+      </c>
+      <c r="I65" s="2">
+        <v>7736</v>
+      </c>
+      <c r="J65" s="3">
+        <v>2</v>
+      </c>
+      <c r="K65" s="3">
+        <v>1</v>
+      </c>
+      <c r="L65" s="3">
+        <v>2</v>
+      </c>
+      <c r="M65" s="3">
+        <v>3</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="22">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2477,7 +3875,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -2491,8 +3889,29 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="2">
+        <v>10200</v>
+      </c>
+      <c r="I66" s="2">
+        <v>6928</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="22">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2500,7 +3919,7 @@
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -2514,8 +3933,29 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="2">
+        <v>12830</v>
+      </c>
+      <c r="I67" s="2">
+        <v>11326</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
+      <c r="K67" s="3">
+        <v>2</v>
+      </c>
+      <c r="L67" s="3">
+        <v>6</v>
+      </c>
+      <c r="M67" s="3">
+        <v>4</v>
+      </c>
+      <c r="N67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="22">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2523,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -2532,13 +3972,34 @@
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="2">
+        <v>11286</v>
+      </c>
+      <c r="I68" s="2">
+        <v>9029</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>1</v>
+      </c>
+      <c r="L68" s="3">
+        <v>2</v>
+      </c>
+      <c r="M68" s="3">
+        <v>3</v>
+      </c>
+      <c r="N68" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="22">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2546,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -2555,13 +4016,34 @@
         <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="2">
+        <v>13070</v>
+      </c>
+      <c r="I69" s="2">
+        <v>7766</v>
+      </c>
+      <c r="J69" s="3">
+        <v>4</v>
+      </c>
+      <c r="K69" s="3">
+        <v>3</v>
+      </c>
+      <c r="L69" s="3">
+        <v>4</v>
+      </c>
+      <c r="M69" s="3">
+        <v>5</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="22">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2569,7 +4051,7 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2583,8 +4065,29 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="2">
+        <v>13225</v>
+      </c>
+      <c r="I70" s="2">
+        <v>12068</v>
+      </c>
+      <c r="J70" s="3">
+        <v>2</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1</v>
+      </c>
+      <c r="L70" s="3">
+        <v>5</v>
+      </c>
+      <c r="M70" s="3">
+        <v>3</v>
+      </c>
+      <c r="N70" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="22">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2592,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -2606,8 +4109,29 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="2">
+        <v>11637</v>
+      </c>
+      <c r="I71" s="2">
+        <v>9494</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4</v>
+      </c>
+      <c r="K71" s="3">
+        <v>4</v>
+      </c>
+      <c r="L71" s="3">
+        <v>2</v>
+      </c>
+      <c r="M71" s="3">
+        <v>5</v>
+      </c>
+      <c r="N71" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="22">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2615,7 +4139,7 @@
         <v>5</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -2629,8 +4153,29 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="2">
+        <v>14825</v>
+      </c>
+      <c r="I72" s="2">
+        <v>11375</v>
+      </c>
+      <c r="J72" s="3">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
+        <v>6</v>
+      </c>
+      <c r="L72" s="3">
+        <v>2</v>
+      </c>
+      <c r="M72" s="3">
+        <v>7</v>
+      </c>
+      <c r="N72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="22">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2638,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -2647,13 +4192,34 @@
         <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="2">
+        <v>10098</v>
+      </c>
+      <c r="I73" s="2">
+        <v>6877</v>
+      </c>
+      <c r="J73" s="3">
+        <v>2</v>
+      </c>
+      <c r="K73" s="3">
+        <v>2</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2</v>
+      </c>
+      <c r="M73" s="3">
+        <v>4</v>
+      </c>
+      <c r="N73" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="22">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2661,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2670,13 +4236,34 @@
         <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="2">
+        <v>9786</v>
+      </c>
+      <c r="I74" s="2">
+        <v>7460</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2</v>
+      </c>
+      <c r="K74" s="3">
+        <v>1</v>
+      </c>
+      <c r="L74" s="3">
+        <v>2</v>
+      </c>
+      <c r="M74" s="3">
+        <v>3</v>
+      </c>
+      <c r="N74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="22">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2684,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -2698,8 +4285,29 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="2">
+        <v>11286</v>
+      </c>
+      <c r="I75" s="2">
+        <v>9258</v>
+      </c>
+      <c r="J75" s="3">
+        <v>2</v>
+      </c>
+      <c r="K75" s="3">
+        <v>1</v>
+      </c>
+      <c r="L75" s="3">
+        <v>2</v>
+      </c>
+      <c r="M75" s="3">
+        <v>3</v>
+      </c>
+      <c r="N75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="22">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2707,7 +4315,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <v>6</v>
@@ -2716,13 +4324,34 @@
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="2">
+        <v>11882</v>
+      </c>
+      <c r="I76" s="2">
+        <v>8629</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3</v>
+      </c>
+      <c r="K76" s="3">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="22">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2730,7 +4359,7 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -2739,13 +4368,34 @@
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="2">
+        <v>12696</v>
+      </c>
+      <c r="I77" s="2">
+        <v>11557</v>
+      </c>
+      <c r="J77" s="3">
+        <v>2</v>
+      </c>
+      <c r="K77" s="3">
+        <v>2</v>
+      </c>
+      <c r="L77" s="3">
+        <v>5</v>
+      </c>
+      <c r="M77" s="3">
+        <v>4</v>
+      </c>
+      <c r="N77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="22">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2753,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2767,8 +4417,29 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="2">
+        <v>14680</v>
+      </c>
+      <c r="I78" s="2">
+        <v>11723</v>
+      </c>
+      <c r="J78" s="3">
+        <v>3</v>
+      </c>
+      <c r="K78" s="3">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3">
+        <v>2</v>
+      </c>
+      <c r="M78" s="3">
+        <v>4</v>
+      </c>
+      <c r="N78" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="22">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2776,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -2790,8 +4461,29 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="2">
+        <v>13825</v>
+      </c>
+      <c r="I79" s="2">
+        <v>11781</v>
+      </c>
+      <c r="J79" s="3">
+        <v>2</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>3</v>
+      </c>
+      <c r="M79" s="3">
+        <v>3</v>
+      </c>
+      <c r="N79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="22">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2799,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2813,8 +4505,29 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="2">
+        <v>11761</v>
+      </c>
+      <c r="I80" s="2">
+        <v>9968</v>
+      </c>
+      <c r="J80" s="3">
+        <v>3</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>2</v>
+      </c>
+      <c r="M80" s="3">
+        <v>4</v>
+      </c>
+      <c r="N80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="22">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2822,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D81">
         <v>6</v>
@@ -2831,13 +4544,34 @@
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="2">
+        <v>9506</v>
+      </c>
+      <c r="I81" s="2">
+        <v>6711</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2</v>
+      </c>
+      <c r="K81" s="3">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3">
+        <v>2</v>
+      </c>
+      <c r="M81" s="3">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="22">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2845,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D82">
         <v>6</v>
@@ -2859,8 +4593,29 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="2">
+        <v>10887</v>
+      </c>
+      <c r="I82" s="2">
+        <v>5996</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2</v>
+      </c>
+      <c r="K82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3">
+        <v>2</v>
+      </c>
+      <c r="M82" s="3">
+        <v>3</v>
+      </c>
+      <c r="N82" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="22">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2868,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D83">
         <v>5</v>
@@ -2882,8 +4637,29 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="2">
+        <v>9675</v>
+      </c>
+      <c r="I83" s="2">
+        <v>6320</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2</v>
+      </c>
+      <c r="K83" s="3">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3">
+        <v>2</v>
+      </c>
+      <c r="M83" s="3">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="22">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2891,7 +4667,7 @@
         <v>4</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D84">
         <v>7</v>
@@ -2900,13 +4676,34 @@
         <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="2">
+        <v>10687</v>
+      </c>
+      <c r="I84" s="2">
+        <v>9441</v>
+      </c>
+      <c r="J84" s="3">
+        <v>2</v>
+      </c>
+      <c r="K84" s="3">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3">
+        <v>2</v>
+      </c>
+      <c r="M84" s="3">
+        <v>3</v>
+      </c>
+      <c r="N84" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="22">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2914,7 +4711,7 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D85">
         <v>14</v>
@@ -2925,8 +4722,10 @@
       <c r="F85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" ht="22">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2934,7 +4733,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -2943,13 +4742,34 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="2">
+        <v>13230</v>
+      </c>
+      <c r="I86" s="2">
+        <v>12342</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3</v>
+      </c>
+      <c r="K86" s="3">
+        <v>3</v>
+      </c>
+      <c r="L86" s="3">
+        <v>2</v>
+      </c>
+      <c r="M86" s="3">
+        <v>5</v>
+      </c>
+      <c r="N86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="22">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2957,7 +4777,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -2971,8 +4791,29 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="2">
+        <v>13632</v>
+      </c>
+      <c r="I87" s="2">
+        <v>11976</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3">
+        <v>3</v>
+      </c>
+      <c r="M87" s="3">
+        <v>4</v>
+      </c>
+      <c r="N87" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="22">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2980,7 +4821,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2989,13 +4830,34 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="2">
+        <v>12696</v>
+      </c>
+      <c r="I88" s="2">
+        <v>11761</v>
+      </c>
+      <c r="J88" s="3">
+        <v>2</v>
+      </c>
+      <c r="K88" s="3">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3">
+        <v>4</v>
+      </c>
+      <c r="M88" s="3">
+        <v>4</v>
+      </c>
+      <c r="N88" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="22">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3003,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -3012,13 +4874,34 @@
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="2">
+        <v>12750</v>
+      </c>
+      <c r="I89" s="2">
+        <v>8930</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2</v>
+      </c>
+      <c r="M89" s="3">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="22">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3026,7 +4909,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3040,8 +4923,29 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="2">
+        <v>14825</v>
+      </c>
+      <c r="I90" s="2">
+        <v>11432</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2</v>
+      </c>
+      <c r="K90" s="3">
+        <v>1</v>
+      </c>
+      <c r="L90" s="3">
+        <v>3</v>
+      </c>
+      <c r="M90" s="3">
+        <v>5</v>
+      </c>
+      <c r="N90" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="22">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3049,7 +4953,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D91">
         <v>7</v>
@@ -3058,13 +4962,34 @@
         <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="2">
+        <v>10327</v>
+      </c>
+      <c r="I91" s="2">
+        <v>10247</v>
+      </c>
+      <c r="J91" s="3">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>1</v>
+      </c>
+      <c r="L91" s="3">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="22">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3072,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -3086,8 +5011,29 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="2">
+        <v>14248</v>
+      </c>
+      <c r="I92" s="2">
+        <v>11607</v>
+      </c>
+      <c r="J92" s="3">
+        <v>3</v>
+      </c>
+      <c r="K92" s="3">
+        <v>1</v>
+      </c>
+      <c r="L92" s="3">
+        <v>3</v>
+      </c>
+      <c r="M92" s="3">
+        <v>5</v>
+      </c>
+      <c r="N92" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="22">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3095,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -3109,8 +5055,29 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="2">
+        <v>15453</v>
+      </c>
+      <c r="I93" s="2">
+        <v>10721</v>
+      </c>
+      <c r="J93" s="3">
+        <v>2</v>
+      </c>
+      <c r="K93" s="3">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3">
+        <v>4</v>
+      </c>
+      <c r="M93" s="3">
+        <v>4</v>
+      </c>
+      <c r="N93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="22">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3118,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -3127,13 +5094,34 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="2">
+        <v>11055</v>
+      </c>
+      <c r="I94" s="2">
+        <v>8867</v>
+      </c>
+      <c r="J94" s="3">
+        <v>2</v>
+      </c>
+      <c r="K94" s="3">
+        <v>1</v>
+      </c>
+      <c r="L94" s="3">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="22">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3141,7 +5129,7 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D95">
         <v>9</v>
@@ -3155,8 +5143,29 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="2">
+        <v>14107</v>
+      </c>
+      <c r="I95" s="2">
+        <v>10972</v>
+      </c>
+      <c r="J95" s="3">
+        <v>2</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1</v>
+      </c>
+      <c r="L95" s="3">
+        <v>3</v>
+      </c>
+      <c r="M95" s="3">
+        <v>7</v>
+      </c>
+      <c r="N95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="22">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3164,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -3173,13 +5182,34 @@
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="2">
+        <v>11172</v>
+      </c>
+      <c r="I96" s="2">
+        <v>8937</v>
+      </c>
+      <c r="J96" s="3">
+        <v>2</v>
+      </c>
+      <c r="K96" s="3">
+        <v>1</v>
+      </c>
+      <c r="L96" s="3">
+        <v>2</v>
+      </c>
+      <c r="M96" s="3">
+        <v>4</v>
+      </c>
+      <c r="N96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="22">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3187,7 +5217,7 @@
         <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -3201,8 +5231,29 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="2">
+        <v>8731</v>
+      </c>
+      <c r="I97" s="2">
+        <v>7696</v>
+      </c>
+      <c r="J97" s="3">
+        <v>3</v>
+      </c>
+      <c r="K97" s="3">
+        <v>3</v>
+      </c>
+      <c r="L97" s="3">
+        <v>3</v>
+      </c>
+      <c r="M97" s="3">
+        <v>3</v>
+      </c>
+      <c r="N97" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="22">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3210,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D98">
         <v>10</v>
@@ -3224,8 +5275,29 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="2">
+        <v>12177</v>
+      </c>
+      <c r="I98" s="2">
+        <v>12641</v>
+      </c>
+      <c r="J98" s="3">
+        <v>2</v>
+      </c>
+      <c r="K98" s="3">
+        <v>3</v>
+      </c>
+      <c r="L98" s="3">
+        <v>4</v>
+      </c>
+      <c r="M98" s="3">
+        <v>5</v>
+      </c>
+      <c r="N98" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="22">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3233,7 +5305,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D99">
         <v>7</v>
@@ -3247,8 +5319,29 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="2">
+        <v>15221</v>
+      </c>
+      <c r="I99" s="2">
+        <v>10184</v>
+      </c>
+      <c r="J99" s="3">
+        <v>2</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1</v>
+      </c>
+      <c r="L99" s="3">
+        <v>6</v>
+      </c>
+      <c r="M99" s="3">
+        <v>5</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="22">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3256,7 +5349,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D100">
         <v>7</v>
@@ -3265,13 +5358,34 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="2">
+        <v>12210</v>
+      </c>
+      <c r="I100" s="2">
+        <v>12805</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="22">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3279,7 +5393,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -3293,8 +5407,29 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="2">
+        <v>13968</v>
+      </c>
+      <c r="I101" s="2">
+        <v>10296</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1</v>
+      </c>
+      <c r="L101" s="3">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3">
+        <v>7</v>
+      </c>
+      <c r="N101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="22">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3302,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D102">
         <v>6</v>
@@ -3311,13 +5446,34 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="2">
+        <v>11882</v>
+      </c>
+      <c r="I102" s="2">
+        <v>8629</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3</v>
+      </c>
+      <c r="K102" s="3">
+        <v>1</v>
+      </c>
+      <c r="L102" s="3">
+        <v>6</v>
+      </c>
+      <c r="M102" s="3">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="22">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3325,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -3339,8 +5495,29 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="2">
+        <v>11993</v>
+      </c>
+      <c r="I103" s="2">
+        <v>9854</v>
+      </c>
+      <c r="J103" s="3">
+        <v>2</v>
+      </c>
+      <c r="K103" s="3">
+        <v>1</v>
+      </c>
+      <c r="L103" s="3">
+        <v>2</v>
+      </c>
+      <c r="M103" s="3">
+        <v>4</v>
+      </c>
+      <c r="N103" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="22">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3348,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -3357,13 +5534,34 @@
         <v>3</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="2">
+        <v>11360</v>
+      </c>
+      <c r="I104" s="2">
+        <v>9653</v>
+      </c>
+      <c r="J104" s="3">
+        <v>3</v>
+      </c>
+      <c r="K104" s="3">
+        <v>1</v>
+      </c>
+      <c r="L104" s="3">
+        <v>3</v>
+      </c>
+      <c r="M104" s="3">
+        <v>5</v>
+      </c>
+      <c r="N104" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="22">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3371,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -3380,13 +5578,34 @@
         <v>3</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="2">
+        <v>11882</v>
+      </c>
+      <c r="I105" s="2">
+        <v>7952</v>
+      </c>
+      <c r="J105" s="3">
+        <v>3</v>
+      </c>
+      <c r="K105" s="3">
+        <v>3</v>
+      </c>
+      <c r="L105" s="3">
+        <v>3</v>
+      </c>
+      <c r="M105" s="3">
+        <v>5</v>
+      </c>
+      <c r="N105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="22">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3394,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -3408,8 +5627,29 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="2">
+        <v>9123</v>
+      </c>
+      <c r="I106" s="2">
+        <v>6857</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2</v>
+      </c>
+      <c r="K106" s="3">
+        <v>1</v>
+      </c>
+      <c r="L106" s="3">
+        <v>2</v>
+      </c>
+      <c r="M106" s="3">
+        <v>4</v>
+      </c>
+      <c r="N106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="22">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3417,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -3426,13 +5666,34 @@
         <v>3</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="2">
+        <v>9506</v>
+      </c>
+      <c r="I107" s="2">
+        <v>6890</v>
+      </c>
+      <c r="J107" s="3">
+        <v>3</v>
+      </c>
+      <c r="K107" s="3">
+        <v>4</v>
+      </c>
+      <c r="L107" s="3">
+        <v>2</v>
+      </c>
+      <c r="M107" s="3">
+        <v>4</v>
+      </c>
+      <c r="N107" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="22">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3440,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -3454,8 +5715,29 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="2">
+        <v>11761</v>
+      </c>
+      <c r="I108" s="2">
+        <v>13244</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
+      </c>
+      <c r="K108" s="3">
+        <v>4</v>
+      </c>
+      <c r="L108" s="3">
+        <v>3</v>
+      </c>
+      <c r="M108" s="3">
+        <v>7</v>
+      </c>
+      <c r="N108" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="22">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3463,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D109">
         <v>10</v>
@@ -3472,13 +5754,34 @@
         <v>3</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="2">
+        <v>7981</v>
+      </c>
+      <c r="I109" s="2">
+        <v>5683</v>
+      </c>
+      <c r="J109" s="3">
+        <v>2</v>
+      </c>
+      <c r="K109" s="3">
+        <v>1</v>
+      </c>
+      <c r="L109" s="3">
+        <v>3</v>
+      </c>
+      <c r="M109" s="3">
+        <v>4</v>
+      </c>
+      <c r="N109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="22">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3486,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -3500,8 +5803,29 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="2">
+        <v>13219</v>
+      </c>
+      <c r="I110" s="2">
+        <v>11560</v>
+      </c>
+      <c r="J110" s="3">
+        <v>2</v>
+      </c>
+      <c r="K110" s="3">
+        <v>1</v>
+      </c>
+      <c r="L110" s="3">
+        <v>3</v>
+      </c>
+      <c r="M110" s="3">
+        <v>6</v>
+      </c>
+      <c r="N110" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="22">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3509,7 +5833,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -3518,13 +5842,34 @@
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" s="2">
+        <v>11168</v>
+      </c>
+      <c r="I111" s="2">
+        <v>8958</v>
+      </c>
+      <c r="J111" s="3">
+        <v>2</v>
+      </c>
+      <c r="K111" s="3">
+        <v>6</v>
+      </c>
+      <c r="L111" s="3">
+        <v>4</v>
+      </c>
+      <c r="M111" s="3">
+        <v>8</v>
+      </c>
+      <c r="N111" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="22">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3532,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -3541,13 +5886,34 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" s="2">
+        <v>9310</v>
+      </c>
+      <c r="I112" s="2">
+        <v>6686</v>
+      </c>
+      <c r="J112" s="3">
+        <v>3</v>
+      </c>
+      <c r="K112" s="3">
+        <v>1</v>
+      </c>
+      <c r="L112" s="3">
+        <v>3</v>
+      </c>
+      <c r="M112" s="3">
+        <v>6</v>
+      </c>
+      <c r="N112" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="22">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3555,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -3564,13 +5930,34 @@
         <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" s="2">
+        <v>12476</v>
+      </c>
+      <c r="I113" s="2">
+        <v>8237</v>
+      </c>
+      <c r="J113" s="3">
+        <v>3</v>
+      </c>
+      <c r="K113" s="3">
+        <v>3</v>
+      </c>
+      <c r="L113" s="3">
+        <v>3</v>
+      </c>
+      <c r="M113" s="3">
+        <v>4</v>
+      </c>
+      <c r="N113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="22">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3578,7 +5965,7 @@
         <v>5</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -3587,13 +5974,34 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" s="2">
+        <v>12825</v>
+      </c>
+      <c r="I114" s="2">
+        <v>11993</v>
+      </c>
+      <c r="J114" s="3">
+        <v>3</v>
+      </c>
+      <c r="K114" s="3">
+        <v>1</v>
+      </c>
+      <c r="L114" s="3">
+        <v>4</v>
+      </c>
+      <c r="M114" s="3">
+        <v>6</v>
+      </c>
+      <c r="N114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="22">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3601,7 +6009,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D115">
         <v>6</v>
@@ -3610,13 +6018,34 @@
         <v>3</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" s="2">
+        <v>12965</v>
+      </c>
+      <c r="I115" s="2">
+        <v>11658</v>
+      </c>
+      <c r="J115" s="3">
+        <v>2</v>
+      </c>
+      <c r="K115" s="3">
+        <v>1</v>
+      </c>
+      <c r="L115" s="3">
+        <v>3</v>
+      </c>
+      <c r="M115" s="3">
+        <v>6</v>
+      </c>
+      <c r="N115" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="22">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3624,7 +6053,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D116">
         <v>7</v>
@@ -3638,8 +6067,29 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" s="2">
+        <v>13500</v>
+      </c>
+      <c r="I116" s="2">
+        <v>11556</v>
+      </c>
+      <c r="J116" s="3">
+        <v>4</v>
+      </c>
+      <c r="K116" s="3">
+        <v>1</v>
+      </c>
+      <c r="L116" s="3">
+        <v>3</v>
+      </c>
+      <c r="M116" s="3">
+        <v>5</v>
+      </c>
+      <c r="N116" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="22">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3647,7 +6097,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D117">
         <v>4</v>
@@ -3661,8 +6111,29 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" s="2">
+        <v>10800</v>
+      </c>
+      <c r="I117" s="2">
+        <v>9819</v>
+      </c>
+      <c r="J117" s="3">
+        <v>2</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+      <c r="L117" s="3">
+        <v>4</v>
+      </c>
+      <c r="M117" s="3">
+        <v>5</v>
+      </c>
+      <c r="N117" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="22">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3670,7 +6141,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D118">
         <v>7</v>
@@ -3679,13 +6150,34 @@
         <v>2</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" s="2">
+        <v>10954</v>
+      </c>
+      <c r="I118" s="2">
+        <v>9636</v>
+      </c>
+      <c r="J118" s="3">
+        <v>2</v>
+      </c>
+      <c r="K118" s="3">
+        <v>1</v>
+      </c>
+      <c r="L118" s="3">
+        <v>4</v>
+      </c>
+      <c r="M118" s="3">
+        <v>5</v>
+      </c>
+      <c r="N118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="22">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3693,7 +6185,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -3702,13 +6194,34 @@
         <v>3</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" s="2">
+        <v>8844</v>
+      </c>
+      <c r="I119" s="2">
+        <v>7091</v>
+      </c>
+      <c r="J119" s="3">
+        <v>4</v>
+      </c>
+      <c r="K119" s="3">
+        <v>1</v>
+      </c>
+      <c r="L119" s="3">
+        <v>4</v>
+      </c>
+      <c r="M119" s="3">
+        <v>4</v>
+      </c>
+      <c r="N119" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="22">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3716,7 +6229,7 @@
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D120">
         <v>4</v>
@@ -3730,8 +6243,29 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" s="2">
+        <v>12830</v>
+      </c>
+      <c r="I120" s="2">
+        <v>11971</v>
+      </c>
+      <c r="J120" s="3">
+        <v>3</v>
+      </c>
+      <c r="K120" s="3">
+        <v>1</v>
+      </c>
+      <c r="L120" s="3">
+        <v>5</v>
+      </c>
+      <c r="M120" s="3">
+        <v>5</v>
+      </c>
+      <c r="N120" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="22">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3739,7 +6273,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D121">
         <v>3</v>
@@ -3753,8 +6287,29 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" s="2">
+        <v>15606</v>
+      </c>
+      <c r="I121" s="2">
+        <v>10995</v>
+      </c>
+      <c r="J121" s="3">
+        <v>2</v>
+      </c>
+      <c r="K121" s="3">
+        <v>1</v>
+      </c>
+      <c r="L121" s="3">
+        <v>3</v>
+      </c>
+      <c r="M121" s="3">
+        <v>5</v>
+      </c>
+      <c r="N121" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="22">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3762,7 +6317,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -3771,13 +6326,34 @@
         <v>2</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" s="2">
+        <v>11288</v>
+      </c>
+      <c r="I122" s="2">
+        <v>9060</v>
+      </c>
+      <c r="J122" s="3">
+        <v>3</v>
+      </c>
+      <c r="K122" s="3">
+        <v>3</v>
+      </c>
+      <c r="L122" s="3">
+        <v>4</v>
+      </c>
+      <c r="M122" s="3">
+        <v>5</v>
+      </c>
+      <c r="N122" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="22">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3785,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -3799,8 +6375,29 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" s="2">
+        <v>11589</v>
+      </c>
+      <c r="I123" s="2">
+        <v>9949</v>
+      </c>
+      <c r="J123" s="3">
+        <v>2</v>
+      </c>
+      <c r="K123" s="3">
+        <v>4</v>
+      </c>
+      <c r="L123" s="3">
+        <v>3</v>
+      </c>
+      <c r="M123" s="3">
+        <v>5</v>
+      </c>
+      <c r="N123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="22">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3808,7 +6405,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -3817,13 +6414,34 @@
         <v>2</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" s="2">
+        <v>11637</v>
+      </c>
+      <c r="I124" s="2">
+        <v>9735</v>
+      </c>
+      <c r="J124" s="3">
+        <v>3</v>
+      </c>
+      <c r="K124" s="3">
+        <v>5</v>
+      </c>
+      <c r="L124" s="3">
+        <v>4</v>
+      </c>
+      <c r="M124" s="3">
+        <v>6</v>
+      </c>
+      <c r="N124" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="22">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3831,7 +6449,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3840,13 +6458,34 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="2">
+        <v>11419</v>
+      </c>
+      <c r="I125" s="2">
+        <v>10173</v>
+      </c>
+      <c r="J125" s="3">
+        <v>2</v>
+      </c>
+      <c r="K125" s="3">
+        <v>1</v>
+      </c>
+      <c r="L125" s="3">
+        <v>2</v>
+      </c>
+      <c r="M125" s="3">
+        <v>5</v>
+      </c>
+      <c r="N125" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="22">
       <c r="A126">
         <v>124</v>
       </c>
@@ -3854,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -3863,13 +6502,34 @@
         <v>3</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" s="2">
+        <v>9310</v>
+      </c>
+      <c r="I126" s="2">
+        <v>6636</v>
+      </c>
+      <c r="J126" s="3">
+        <v>3</v>
+      </c>
+      <c r="K126" s="3">
+        <v>4</v>
+      </c>
+      <c r="L126" s="3">
+        <v>3</v>
+      </c>
+      <c r="M126" s="3">
+        <v>5</v>
+      </c>
+      <c r="N126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="22">
       <c r="A127">
         <v>125</v>
       </c>
@@ -3877,7 +6537,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -3891,8 +6551,29 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" s="2">
+        <v>9800</v>
+      </c>
+      <c r="I127" s="2">
+        <v>7032</v>
+      </c>
+      <c r="J127" s="3">
+        <v>3</v>
+      </c>
+      <c r="K127" s="3">
+        <v>1</v>
+      </c>
+      <c r="L127" s="3">
+        <v>2</v>
+      </c>
+      <c r="M127" s="3">
+        <v>5</v>
+      </c>
+      <c r="N127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="22">
       <c r="A128">
         <v>126</v>
       </c>
@@ -3900,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3914,8 +6595,29 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" s="2">
+        <v>9595</v>
+      </c>
+      <c r="I128" s="2">
+        <v>7627</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2</v>
+      </c>
+      <c r="K128" s="3">
+        <v>1</v>
+      </c>
+      <c r="L128" s="3">
+        <v>2</v>
+      </c>
+      <c r="M128" s="3">
+        <v>5</v>
+      </c>
+      <c r="N128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="22">
       <c r="A129">
         <v>127</v>
       </c>
@@ -3923,7 +6625,7 @@
         <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -3932,13 +6634,34 @@
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="2">
+        <v>14259</v>
+      </c>
+      <c r="I129" s="2">
+        <v>10598</v>
+      </c>
+      <c r="J129" s="3">
+        <v>3</v>
+      </c>
+      <c r="K129" s="3">
+        <v>1</v>
+      </c>
+      <c r="L129" s="3">
+        <v>4</v>
+      </c>
+      <c r="M129" s="3">
+        <v>4</v>
+      </c>
+      <c r="N129" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="22">
       <c r="A130">
         <v>128</v>
       </c>
@@ -3946,7 +6669,7 @@
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D130">
         <v>3</v>
@@ -3960,8 +6683,29 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" s="2">
+        <v>15147</v>
+      </c>
+      <c r="I130" s="2">
+        <v>10726</v>
+      </c>
+      <c r="J130" s="3">
+        <v>2</v>
+      </c>
+      <c r="K130" s="3">
+        <v>3</v>
+      </c>
+      <c r="L130" s="3">
+        <v>4</v>
+      </c>
+      <c r="M130" s="3">
+        <v>4</v>
+      </c>
+      <c r="N130" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="22">
       <c r="A131">
         <v>129</v>
       </c>
@@ -3969,7 +6713,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -3978,13 +6722,34 @@
         <v>2</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" s="2">
+        <v>14553</v>
+      </c>
+      <c r="I131" s="2">
+        <v>11276</v>
+      </c>
+      <c r="J131" s="3">
+        <v>3</v>
+      </c>
+      <c r="K131" s="3">
+        <v>3</v>
+      </c>
+      <c r="L131" s="3">
+        <v>4</v>
+      </c>
+      <c r="M131" s="3">
+        <v>5</v>
+      </c>
+      <c r="N131" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="22">
       <c r="A132">
         <v>130</v>
       </c>
@@ -3992,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -4001,13 +6766,34 @@
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" s="2">
+        <v>11404</v>
+      </c>
+      <c r="I132" s="2">
+        <v>9060</v>
+      </c>
+      <c r="J132" s="3">
+        <v>5</v>
+      </c>
+      <c r="K132" s="3">
+        <v>1</v>
+      </c>
+      <c r="L132" s="3">
+        <v>3</v>
+      </c>
+      <c r="M132" s="3">
+        <v>4</v>
+      </c>
+      <c r="N132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="22">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4015,7 +6801,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -4029,8 +6815,29 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" s="2">
+        <v>11521</v>
+      </c>
+      <c r="I133" s="2">
+        <v>9446</v>
+      </c>
+      <c r="J133" s="3">
+        <v>2</v>
+      </c>
+      <c r="K133" s="3">
+        <v>1</v>
+      </c>
+      <c r="L133" s="3">
+        <v>3</v>
+      </c>
+      <c r="M133" s="3">
+        <v>5</v>
+      </c>
+      <c r="N133" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="22">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4038,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -4047,13 +6854,34 @@
         <v>2</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" s="2">
+        <v>11400</v>
+      </c>
+      <c r="I134" s="2">
+        <v>9212</v>
+      </c>
+      <c r="J134" s="3">
+        <v>2</v>
+      </c>
+      <c r="K134" s="3">
+        <v>1</v>
+      </c>
+      <c r="L134" s="3">
+        <v>3</v>
+      </c>
+      <c r="M134" s="3">
+        <v>4</v>
+      </c>
+      <c r="N134" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="22">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4061,7 +6889,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D135">
         <v>5</v>
@@ -4070,13 +6898,34 @@
         <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" s="2">
+        <v>11168</v>
+      </c>
+      <c r="I135" s="2">
+        <v>9049</v>
+      </c>
+      <c r="J135" s="3">
+        <v>3</v>
+      </c>
+      <c r="K135" s="3">
+        <v>3</v>
+      </c>
+      <c r="L135" s="3">
+        <v>3</v>
+      </c>
+      <c r="M135" s="3">
+        <v>5</v>
+      </c>
+      <c r="N135" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="22">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4084,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D136">
         <v>3</v>
@@ -4098,8 +6947,29 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" s="2">
+        <v>11870</v>
+      </c>
+      <c r="I136" s="2">
+        <v>8936</v>
+      </c>
+      <c r="J136" s="3">
+        <v>2</v>
+      </c>
+      <c r="K136" s="3">
+        <v>6</v>
+      </c>
+      <c r="L136" s="3">
+        <v>2</v>
+      </c>
+      <c r="M136" s="3">
+        <v>5</v>
+      </c>
+      <c r="N136" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="22">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4107,7 +6977,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D137">
         <v>9</v>
@@ -4116,13 +6986,34 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" s="2">
+        <v>11250</v>
+      </c>
+      <c r="I137" s="2">
+        <v>9546</v>
+      </c>
+      <c r="J137" s="3">
+        <v>3</v>
+      </c>
+      <c r="K137" s="3">
+        <v>1</v>
+      </c>
+      <c r="L137" s="3">
+        <v>4</v>
+      </c>
+      <c r="M137" s="3">
+        <v>5</v>
+      </c>
+      <c r="N137" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="22">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4130,7 +7021,7 @@
         <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -4139,13 +7030,34 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" s="2">
+        <v>13825</v>
+      </c>
+      <c r="I138" s="2">
+        <v>10857</v>
+      </c>
+      <c r="J138" s="3">
+        <v>5</v>
+      </c>
+      <c r="K138" s="3">
+        <v>1</v>
+      </c>
+      <c r="L138" s="3">
+        <v>3</v>
+      </c>
+      <c r="M138" s="3">
+        <v>5</v>
+      </c>
+      <c r="N138" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="22">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4153,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -4162,13 +7074,34 @@
         <v>1</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" s="2">
+        <v>10914</v>
+      </c>
+      <c r="I139" s="2">
+        <v>9845</v>
+      </c>
+      <c r="J139" s="3">
+        <v>6</v>
+      </c>
+      <c r="K139" s="3">
+        <v>2</v>
+      </c>
+      <c r="L139" s="3">
+        <v>3</v>
+      </c>
+      <c r="M139" s="3">
+        <v>4</v>
+      </c>
+      <c r="N139" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="22">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4176,7 +7109,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -4190,8 +7123,29 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" s="2">
+        <v>11248</v>
+      </c>
+      <c r="I140" s="2">
+        <v>9899</v>
+      </c>
+      <c r="J140" s="3">
+        <v>3</v>
+      </c>
+      <c r="K140" s="3">
+        <v>1</v>
+      </c>
+      <c r="L140" s="3">
+        <v>4</v>
+      </c>
+      <c r="M140" s="3">
+        <v>5</v>
+      </c>
+      <c r="N140" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="22">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4199,7 +7153,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D141">
         <v>5</v>
@@ -4213,8 +7167,29 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" s="2">
+        <v>13402</v>
+      </c>
+      <c r="I141" s="2">
+        <v>11088</v>
+      </c>
+      <c r="J141" s="3">
+        <v>2</v>
+      </c>
+      <c r="K141" s="3">
+        <v>3</v>
+      </c>
+      <c r="L141" s="3">
+        <v>4</v>
+      </c>
+      <c r="M141" s="3">
+        <v>6</v>
+      </c>
+      <c r="N141" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="22">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4222,7 +7197,7 @@
         <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -4236,8 +7211,29 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" s="2">
+        <v>13005</v>
+      </c>
+      <c r="I142" s="2">
+        <v>8775</v>
+      </c>
+      <c r="J142" s="3">
+        <v>2</v>
+      </c>
+      <c r="K142" s="3">
+        <v>3</v>
+      </c>
+      <c r="L142" s="3">
+        <v>3</v>
+      </c>
+      <c r="M142" s="3">
+        <v>5</v>
+      </c>
+      <c r="N142" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="22">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4245,7 +7241,7 @@
         <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D143">
         <v>3</v>
@@ -4259,8 +7255,29 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" s="2">
+        <v>11870</v>
+      </c>
+      <c r="I143" s="2">
+        <v>9261</v>
+      </c>
+      <c r="J143" s="3">
+        <v>3</v>
+      </c>
+      <c r="K143" s="3">
+        <v>1</v>
+      </c>
+      <c r="L143" s="3">
+        <v>3</v>
+      </c>
+      <c r="M143" s="3">
+        <v>5</v>
+      </c>
+      <c r="N143" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="22">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4268,7 +7285,7 @@
         <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -4282,8 +7299,29 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" s="2">
+        <v>13965</v>
+      </c>
+      <c r="I144" s="2">
+        <v>12252</v>
+      </c>
+      <c r="J144" s="3">
+        <v>4</v>
+      </c>
+      <c r="K144" s="3">
+        <v>1</v>
+      </c>
+      <c r="L144" s="3">
+        <v>4</v>
+      </c>
+      <c r="M144" s="3">
+        <v>7</v>
+      </c>
+      <c r="N144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="22">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4291,7 +7329,7 @@
         <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D145">
         <v>3</v>
@@ -4300,13 +7338,34 @@
         <v>1</v>
       </c>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" s="2">
+        <v>15300</v>
+      </c>
+      <c r="I145" s="2">
+        <v>10780</v>
+      </c>
+      <c r="J145" s="3">
+        <v>5</v>
+      </c>
+      <c r="K145" s="3">
+        <v>1</v>
+      </c>
+      <c r="L145" s="3">
+        <v>4</v>
+      </c>
+      <c r="M145" s="3">
+        <v>6</v>
+      </c>
+      <c r="N145" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="22">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4314,7 +7373,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D146">
         <v>4</v>
@@ -4328,8 +7387,29 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" s="2">
+        <v>12960</v>
+      </c>
+      <c r="I146" s="2">
+        <v>12001</v>
+      </c>
+      <c r="J146" s="3">
+        <v>2</v>
+      </c>
+      <c r="K146" s="3">
+        <v>3</v>
+      </c>
+      <c r="L146" s="3">
+        <v>3</v>
+      </c>
+      <c r="M146" s="3">
+        <v>5</v>
+      </c>
+      <c r="N146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="22">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4337,7 +7417,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -4346,13 +7426,34 @@
         <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" s="2">
+        <v>12005</v>
+      </c>
+      <c r="I147" s="2">
+        <v>8460</v>
+      </c>
+      <c r="J147" s="3">
+        <v>5</v>
+      </c>
+      <c r="K147" s="3">
+        <v>6</v>
+      </c>
+      <c r="L147" s="3">
+        <v>2</v>
+      </c>
+      <c r="M147" s="3">
+        <v>5</v>
+      </c>
+      <c r="N147" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="22">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4360,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="C148" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D148">
         <v>3</v>
@@ -4369,13 +7470,34 @@
         <v>2</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" s="2">
+        <v>13119</v>
+      </c>
+      <c r="I148" s="2">
+        <v>8253</v>
+      </c>
+      <c r="J148" s="3">
+        <v>4</v>
+      </c>
+      <c r="K148" s="3">
+        <v>1</v>
+      </c>
+      <c r="L148" s="3">
+        <v>3</v>
+      </c>
+      <c r="M148" s="3">
+        <v>5</v>
+      </c>
+      <c r="N148" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="22">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4383,7 +7505,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D149">
         <v>10</v>
@@ -4397,8 +7519,29 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" s="2">
+        <v>10197</v>
+      </c>
+      <c r="I149" s="2">
+        <v>10706</v>
+      </c>
+      <c r="J149" s="3">
+        <v>5</v>
+      </c>
+      <c r="K149" s="3">
+        <v>3</v>
+      </c>
+      <c r="L149" s="3">
+        <v>3</v>
+      </c>
+      <c r="M149" s="3">
+        <v>5</v>
+      </c>
+      <c r="N149" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="22">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4406,7 +7549,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D150">
         <v>3</v>
@@ -4420,8 +7563,29 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" s="2">
+        <v>9593</v>
+      </c>
+      <c r="I150" s="2">
+        <v>7022</v>
+      </c>
+      <c r="J150" s="3">
+        <v>2</v>
+      </c>
+      <c r="K150" s="3">
+        <v>4</v>
+      </c>
+      <c r="L150" s="3">
+        <v>2</v>
+      </c>
+      <c r="M150" s="3">
+        <v>6</v>
+      </c>
+      <c r="N150" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="22">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4429,7 +7593,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D151">
         <v>14</v>
@@ -4440,8 +7604,10 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:14" ht="22">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4449,7 +7615,7 @@
         <v>5</v>
       </c>
       <c r="C152" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D152">
         <v>6</v>
@@ -4458,13 +7624,34 @@
         <v>2</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" s="2">
+        <v>14259</v>
+      </c>
+      <c r="I152" s="2">
+        <v>10546</v>
+      </c>
+      <c r="J152" s="3">
+        <v>2</v>
+      </c>
+      <c r="K152" s="3">
+        <v>5</v>
+      </c>
+      <c r="L152" s="3">
+        <v>3</v>
+      </c>
+      <c r="M152" s="3">
+        <v>6</v>
+      </c>
+      <c r="N152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="22">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4472,7 +7659,7 @@
         <v>5</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D153">
         <v>14</v>
@@ -4483,8 +7670,10 @@
       <c r="F153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:14" ht="22">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4492,7 +7681,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D154">
         <v>14</v>
@@ -4503,8 +7692,10 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:14" ht="22">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4512,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4521,13 +7712,34 @@
         <v>3</v>
       </c>
       <c r="F155" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" s="2">
+        <v>13635</v>
+      </c>
+      <c r="I155" s="2">
+        <v>12037</v>
+      </c>
+      <c r="J155" s="3">
+        <v>3</v>
+      </c>
+      <c r="K155" s="3">
+        <v>2</v>
+      </c>
+      <c r="L155" s="3">
+        <v>3</v>
+      </c>
+      <c r="M155" s="3">
+        <v>4</v>
+      </c>
+      <c r="N155" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="22">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4535,7 +7747,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D156">
         <v>5</v>
@@ -4544,13 +7756,34 @@
         <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" s="2">
+        <v>13338</v>
+      </c>
+      <c r="I156" s="2">
+        <v>11848</v>
+      </c>
+      <c r="J156" s="3">
+        <v>3</v>
+      </c>
+      <c r="K156" s="3">
+        <v>1</v>
+      </c>
+      <c r="L156" s="3">
+        <v>5</v>
+      </c>
+      <c r="M156" s="3">
+        <v>6</v>
+      </c>
+      <c r="N156" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="22">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4558,7 +7791,7 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -4572,8 +7805,29 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" s="2">
+        <v>14175</v>
+      </c>
+      <c r="I157" s="2">
+        <v>11113</v>
+      </c>
+      <c r="J157" s="3">
+        <v>2</v>
+      </c>
+      <c r="K157" s="3">
+        <v>4</v>
+      </c>
+      <c r="L157" s="3">
+        <v>3</v>
+      </c>
+      <c r="M157" s="3">
+        <v>5</v>
+      </c>
+      <c r="N157" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="22">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4581,7 +7835,7 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -4590,13 +7844,34 @@
         <v>3</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" s="2">
+        <v>13685</v>
+      </c>
+      <c r="I158" s="2">
+        <v>11781</v>
+      </c>
+      <c r="J158" s="3">
+        <v>4</v>
+      </c>
+      <c r="K158" s="3">
+        <v>5</v>
+      </c>
+      <c r="L158" s="3">
+        <v>3</v>
+      </c>
+      <c r="M158" s="3">
+        <v>6</v>
+      </c>
+      <c r="N158" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="22">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4604,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -4613,13 +7888,34 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" s="2">
+        <v>12250</v>
+      </c>
+      <c r="I159" s="2">
+        <v>8996</v>
+      </c>
+      <c r="J159" s="3">
+        <v>4</v>
+      </c>
+      <c r="K159" s="3">
+        <v>4</v>
+      </c>
+      <c r="L159" s="3">
+        <v>4</v>
+      </c>
+      <c r="M159" s="3">
+        <v>5</v>
+      </c>
+      <c r="N159" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="22">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4627,7 +7923,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D160">
         <v>10</v>
@@ -4636,13 +7932,34 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" s="2">
+        <v>9949</v>
+      </c>
+      <c r="I160" s="2">
+        <v>10628</v>
+      </c>
+      <c r="J160" s="3">
+        <v>2</v>
+      </c>
+      <c r="K160" s="3">
+        <v>2</v>
+      </c>
+      <c r="L160" s="3">
+        <v>3</v>
+      </c>
+      <c r="M160" s="3">
+        <v>5</v>
+      </c>
+      <c r="N160" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="22">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4650,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -4659,13 +7976,34 @@
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" s="2">
+        <v>11637</v>
+      </c>
+      <c r="I161" s="2">
+        <v>8661</v>
+      </c>
+      <c r="J161" s="3">
+        <v>3</v>
+      </c>
+      <c r="K161" s="3">
+        <v>1</v>
+      </c>
+      <c r="L161" s="3">
+        <v>3</v>
+      </c>
+      <c r="M161" s="3">
+        <v>5</v>
+      </c>
+      <c r="N161" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="22">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4673,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4687,8 +8025,29 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" s="2">
+        <v>13975</v>
+      </c>
+      <c r="I162" s="2">
+        <v>12465</v>
+      </c>
+      <c r="J162" s="3">
+        <v>2</v>
+      </c>
+      <c r="K162" s="3">
+        <v>1</v>
+      </c>
+      <c r="L162" s="3">
+        <v>3</v>
+      </c>
+      <c r="M162" s="3">
+        <v>5</v>
+      </c>
+      <c r="N162" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="22">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4696,7 +8055,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -4710,8 +8069,29 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" s="2">
+        <v>12028</v>
+      </c>
+      <c r="I163" s="2">
+        <v>12089</v>
+      </c>
+      <c r="J163" s="3">
+        <v>2</v>
+      </c>
+      <c r="K163" s="3">
+        <v>2</v>
+      </c>
+      <c r="L163" s="3">
+        <v>3</v>
+      </c>
+      <c r="M163" s="3">
+        <v>3</v>
+      </c>
+      <c r="N163" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="22">
       <c r="A164">
         <v>162</v>
       </c>
@@ -4719,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -4728,13 +8108,34 @@
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" s="2">
+        <v>11025</v>
+      </c>
+      <c r="I164" s="2">
+        <v>8945</v>
+      </c>
+      <c r="J164" s="3">
+        <v>2</v>
+      </c>
+      <c r="K164" s="3">
+        <v>5</v>
+      </c>
+      <c r="L164" s="3">
+        <v>3</v>
+      </c>
+      <c r="M164" s="3">
+        <v>4</v>
+      </c>
+      <c r="N164" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="22">
       <c r="A165">
         <v>163</v>
       </c>
@@ -4742,7 +8143,7 @@
         <v>5</v>
       </c>
       <c r="C165" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D165">
         <v>12</v>
@@ -4756,8 +8157,29 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" s="2">
+        <v>13402</v>
+      </c>
+      <c r="I165" s="2">
+        <v>11692</v>
+      </c>
+      <c r="J165" s="3">
+        <v>2</v>
+      </c>
+      <c r="K165" s="3">
+        <v>1</v>
+      </c>
+      <c r="L165" s="3">
+        <v>4</v>
+      </c>
+      <c r="M165" s="3">
+        <v>6</v>
+      </c>
+      <c r="N165" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="22">
       <c r="A166">
         <v>164</v>
       </c>
@@ -4765,7 +8187,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D166">
         <v>12</v>
@@ -4774,13 +8196,34 @@
         <v>2</v>
       </c>
       <c r="F166" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" s="2">
+        <v>10901</v>
+      </c>
+      <c r="I166" s="2">
+        <v>10299</v>
+      </c>
+      <c r="J166" s="3">
+        <v>3</v>
+      </c>
+      <c r="K166" s="3">
+        <v>1</v>
+      </c>
+      <c r="L166" s="3">
+        <v>4</v>
+      </c>
+      <c r="M166" s="3">
+        <v>5</v>
+      </c>
+      <c r="N166" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="22">
       <c r="A167">
         <v>165</v>
       </c>
@@ -4788,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -4802,8 +8245,30 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" s="2">
+        <v>11753</v>
+      </c>
+      <c r="I167" s="2">
+        <v>9544</v>
+      </c>
+      <c r="J167" s="3">
+        <v>3</v>
+      </c>
+      <c r="K167" s="3">
+        <v>3</v>
+      </c>
+      <c r="L167" s="3">
+        <v>3</v>
+      </c>
+      <c r="M167" s="3">
+        <v>4</v>
+      </c>
+      <c r="N167" s="3">
+        <v>10</v>
+      </c>
+      <c r="O167" s="3"/>
+    </row>
+    <row r="168" spans="1:15" ht="22">
       <c r="A168">
         <v>166</v>
       </c>
@@ -4811,7 +8276,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D168">
         <v>11</v>
@@ -4820,13 +8285,34 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" s="2">
+        <v>13643</v>
+      </c>
+      <c r="I168" s="2">
+        <v>8197</v>
+      </c>
+      <c r="J168" s="3">
+        <v>3</v>
+      </c>
+      <c r="K168" s="3">
+        <v>1</v>
+      </c>
+      <c r="L168" s="3">
+        <v>4</v>
+      </c>
+      <c r="M168" s="3">
+        <v>4</v>
+      </c>
+      <c r="N168" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="22">
       <c r="A169">
         <v>167</v>
       </c>
@@ -4834,7 +8320,7 @@
         <v>5</v>
       </c>
       <c r="C169" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D169">
         <v>12</v>
@@ -4848,8 +8334,29 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" s="2">
+        <v>14606</v>
+      </c>
+      <c r="I169" s="2">
+        <v>11668</v>
+      </c>
+      <c r="J169" s="3">
+        <v>3</v>
+      </c>
+      <c r="K169" s="3">
+        <v>1</v>
+      </c>
+      <c r="L169" s="3">
+        <v>3</v>
+      </c>
+      <c r="M169" s="3">
+        <v>5</v>
+      </c>
+      <c r="N169" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="22">
       <c r="A170">
         <v>168</v>
       </c>
@@ -4857,7 +8364,7 @@
         <v>5</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D170">
         <v>14</v>
@@ -4868,8 +8375,10 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:15" ht="22">
       <c r="A171">
         <v>169</v>
       </c>
@@ -4877,7 +8386,7 @@
         <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D171">
         <v>6</v>
@@ -4886,13 +8395,34 @@
         <v>3</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" s="2">
+        <v>15846</v>
+      </c>
+      <c r="I171" s="2">
+        <v>9212</v>
+      </c>
+      <c r="J171" s="3">
+        <v>3</v>
+      </c>
+      <c r="K171" s="3">
+        <v>4</v>
+      </c>
+      <c r="L171" s="3">
+        <v>4</v>
+      </c>
+      <c r="M171" s="3">
+        <v>4</v>
+      </c>
+      <c r="N171" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="22">
       <c r="A172">
         <v>170</v>
       </c>
@@ -4900,7 +8430,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D172">
         <v>5</v>
@@ -4914,8 +8444,29 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" s="2">
+        <v>10942</v>
+      </c>
+      <c r="I172" s="2">
+        <v>8981</v>
+      </c>
+      <c r="J172" s="3">
+        <v>3</v>
+      </c>
+      <c r="K172" s="3">
+        <v>3</v>
+      </c>
+      <c r="L172" s="3">
+        <v>3</v>
+      </c>
+      <c r="M172" s="3">
+        <v>3</v>
+      </c>
+      <c r="N172" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="22">
       <c r="A173">
         <v>171</v>
       </c>
@@ -4923,7 +8474,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D173">
         <v>7</v>
@@ -4932,13 +8483,34 @@
         <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" s="2">
+        <v>10175</v>
+      </c>
+      <c r="I173" s="2">
+        <v>10502</v>
+      </c>
+      <c r="J173" s="3">
+        <v>2</v>
+      </c>
+      <c r="K173" s="3">
+        <v>2</v>
+      </c>
+      <c r="L173" s="3">
+        <v>3</v>
+      </c>
+      <c r="M173" s="3">
+        <v>5</v>
+      </c>
+      <c r="N173" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="22">
       <c r="A174">
         <v>172</v>
       </c>
@@ -4946,7 +8518,7 @@
         <v>3</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D174">
         <v>4</v>
@@ -4960,8 +8532,29 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" s="2">
+        <v>9600</v>
+      </c>
+      <c r="I174" s="2">
+        <v>6552</v>
+      </c>
+      <c r="J174" s="3">
+        <v>3</v>
+      </c>
+      <c r="K174" s="3">
+        <v>4</v>
+      </c>
+      <c r="L174" s="3">
+        <v>3</v>
+      </c>
+      <c r="M174" s="3">
+        <v>5</v>
+      </c>
+      <c r="N174" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="22">
       <c r="A175">
         <v>173</v>
       </c>
@@ -4969,7 +8562,7 @@
         <v>5</v>
       </c>
       <c r="C175" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D175">
         <v>9</v>
@@ -4978,13 +8571,34 @@
         <v>4</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" s="2">
+        <v>13365</v>
+      </c>
+      <c r="I175" s="2">
+        <v>11495</v>
+      </c>
+      <c r="J175" s="3">
+        <v>3</v>
+      </c>
+      <c r="K175" s="3">
+        <v>4</v>
+      </c>
+      <c r="L175" s="3">
+        <v>3</v>
+      </c>
+      <c r="M175" s="3">
+        <v>5</v>
+      </c>
+      <c r="N175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="22">
       <c r="A176">
         <v>174</v>
       </c>
@@ -4992,7 +8606,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D176">
         <v>7</v>
@@ -5001,13 +8615,34 @@
         <v>2</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" s="2">
+        <v>6196</v>
+      </c>
+      <c r="I176" s="2">
+        <v>6044</v>
+      </c>
+      <c r="J176" s="3">
+        <v>3</v>
+      </c>
+      <c r="K176" s="3">
+        <v>3</v>
+      </c>
+      <c r="L176" s="3">
+        <v>3</v>
+      </c>
+      <c r="M176" s="3">
+        <v>4</v>
+      </c>
+      <c r="N176" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="22">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5015,7 +8650,7 @@
         <v>5</v>
       </c>
       <c r="C177" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D177">
         <v>6</v>
@@ -5029,8 +8664,29 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" s="2">
+        <v>13685</v>
+      </c>
+      <c r="I177" s="2">
+        <v>10857</v>
+      </c>
+      <c r="J177" s="3">
+        <v>6</v>
+      </c>
+      <c r="K177" s="3">
+        <v>2</v>
+      </c>
+      <c r="L177" s="3">
+        <v>4</v>
+      </c>
+      <c r="M177" s="3">
+        <v>6</v>
+      </c>
+      <c r="N177" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="22">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5038,7 +8694,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -5052,8 +8708,29 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" s="2">
+        <v>11993</v>
+      </c>
+      <c r="I178" s="2">
+        <v>9353</v>
+      </c>
+      <c r="J178" s="3">
+        <v>4</v>
+      </c>
+      <c r="K178" s="3">
+        <v>5</v>
+      </c>
+      <c r="L178" s="3">
+        <v>3</v>
+      </c>
+      <c r="M178" s="3">
+        <v>5</v>
+      </c>
+      <c r="N178" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="22">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5061,7 +8738,7 @@
         <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D179">
         <v>5</v>
@@ -5070,13 +8747,34 @@
         <v>1</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" s="2">
+        <v>11518</v>
+      </c>
+      <c r="I179" s="2">
+        <v>8812</v>
+      </c>
+      <c r="J179" s="3">
+        <v>2</v>
+      </c>
+      <c r="K179" s="3">
+        <v>1</v>
+      </c>
+      <c r="L179" s="3">
+        <v>3</v>
+      </c>
+      <c r="M179" s="3">
+        <v>4</v>
+      </c>
+      <c r="N179" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="22">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5084,7 +8782,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D180">
         <v>7</v>
@@ -5093,13 +8791,34 @@
         <v>3</v>
       </c>
       <c r="F180" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" s="2">
+        <v>10023</v>
+      </c>
+      <c r="I180" s="2">
+        <v>10146</v>
+      </c>
+      <c r="J180" s="3">
+        <v>2</v>
+      </c>
+      <c r="K180" s="3">
+        <v>6</v>
+      </c>
+      <c r="L180" s="3">
+        <v>3</v>
+      </c>
+      <c r="M180" s="3">
+        <v>5</v>
+      </c>
+      <c r="N180" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="22">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5107,7 +8826,7 @@
         <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D181">
         <v>4</v>
@@ -5116,13 +8835,34 @@
         <v>3</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" s="2">
+        <v>14256</v>
+      </c>
+      <c r="I181" s="2">
+        <v>10776</v>
+      </c>
+      <c r="J181" s="3">
+        <v>3</v>
+      </c>
+      <c r="K181" s="3">
+        <v>2</v>
+      </c>
+      <c r="L181" s="3">
+        <v>3</v>
+      </c>
+      <c r="M181" s="3">
+        <v>5</v>
+      </c>
+      <c r="N181" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="22">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5130,7 +8870,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -5139,13 +8879,34 @@
         <v>3</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" s="2">
+        <v>11404</v>
+      </c>
+      <c r="I182" s="2">
+        <v>9446</v>
+      </c>
+      <c r="J182" s="3">
+        <v>5</v>
+      </c>
+      <c r="K182" s="3">
+        <v>1</v>
+      </c>
+      <c r="L182" s="3">
+        <v>3</v>
+      </c>
+      <c r="M182" s="3">
+        <v>3</v>
+      </c>
+      <c r="N182" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="22">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5153,7 +8914,7 @@
         <v>4</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -5167,8 +8928,29 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" s="2">
+        <v>12112</v>
+      </c>
+      <c r="I183" s="2">
+        <v>9168</v>
+      </c>
+      <c r="J183" s="3">
+        <v>4</v>
+      </c>
+      <c r="K183" s="3">
+        <v>1</v>
+      </c>
+      <c r="L183" s="3">
+        <v>3</v>
+      </c>
+      <c r="M183" s="3">
+        <v>5</v>
+      </c>
+      <c r="N183" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="22">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5176,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D184">
         <v>4</v>
@@ -5185,13 +8967,34 @@
         <v>1</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" s="2">
+        <v>10692</v>
+      </c>
+      <c r="I184" s="2">
+        <v>9603</v>
+      </c>
+      <c r="J184" s="3">
+        <v>3</v>
+      </c>
+      <c r="K184" s="3">
+        <v>5</v>
+      </c>
+      <c r="L184" s="3">
+        <v>2</v>
+      </c>
+      <c r="M184" s="3">
+        <v>3</v>
+      </c>
+      <c r="N184" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="22">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5199,7 +9002,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -5213,8 +9016,29 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" s="2">
+        <v>13253</v>
+      </c>
+      <c r="I185" s="2">
+        <v>8127</v>
+      </c>
+      <c r="J185" s="3">
+        <v>2</v>
+      </c>
+      <c r="K185" s="3">
+        <v>3</v>
+      </c>
+      <c r="L185" s="3">
+        <v>3</v>
+      </c>
+      <c r="M185" s="3">
+        <v>5</v>
+      </c>
+      <c r="N185" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="22">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5222,7 +9046,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D186">
         <v>2</v>
@@ -5236,8 +9060,29 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" s="2">
+        <v>10804</v>
+      </c>
+      <c r="I186" s="2">
+        <v>9946</v>
+      </c>
+      <c r="J186" s="3">
+        <v>2</v>
+      </c>
+      <c r="K186" s="3">
+        <v>2</v>
+      </c>
+      <c r="L186" s="3">
+        <v>3</v>
+      </c>
+      <c r="M186" s="3">
+        <v>5</v>
+      </c>
+      <c r="N186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="22">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5245,7 +9090,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D187">
         <v>5</v>
@@ -5254,13 +9099,34 @@
         <v>2</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" s="2">
+        <v>11637</v>
+      </c>
+      <c r="I187" s="2">
+        <v>8510</v>
+      </c>
+      <c r="J187" s="3">
+        <v>2</v>
+      </c>
+      <c r="K187" s="3">
+        <v>3</v>
+      </c>
+      <c r="L187" s="3">
+        <v>3</v>
+      </c>
+      <c r="M187" s="3">
+        <v>4</v>
+      </c>
+      <c r="N187" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="22">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5268,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -5277,13 +9143,34 @@
         <v>3</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" s="2">
+        <v>9996</v>
+      </c>
+      <c r="I188" s="2">
+        <v>6791</v>
+      </c>
+      <c r="J188" s="3">
+        <v>2</v>
+      </c>
+      <c r="K188" s="3">
+        <v>2</v>
+      </c>
+      <c r="L188" s="3">
+        <v>3</v>
+      </c>
+      <c r="M188" s="3">
+        <v>4</v>
+      </c>
+      <c r="N188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="22">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5291,7 +9178,7 @@
         <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -5305,8 +9192,29 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" s="2">
+        <v>11135</v>
+      </c>
+      <c r="I189" s="2">
+        <v>9999</v>
+      </c>
+      <c r="J189" s="3">
+        <v>2</v>
+      </c>
+      <c r="K189" s="3">
+        <v>1</v>
+      </c>
+      <c r="L189" s="3">
+        <v>4</v>
+      </c>
+      <c r="M189" s="3">
+        <v>4</v>
+      </c>
+      <c r="N189" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="22">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5314,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D190">
         <v>5</v>
@@ -5328,8 +9236,29 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" s="2">
+        <v>11055</v>
+      </c>
+      <c r="I190" s="2">
+        <v>8935</v>
+      </c>
+      <c r="J190" s="3">
+        <v>3</v>
+      </c>
+      <c r="K190" s="3">
+        <v>2</v>
+      </c>
+      <c r="L190" s="3">
+        <v>4</v>
+      </c>
+      <c r="M190" s="3">
+        <v>5</v>
+      </c>
+      <c r="N190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="22">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5337,7 +9266,7 @@
         <v>5</v>
       </c>
       <c r="C191" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D191">
         <v>5</v>
@@ -5346,13 +9275,34 @@
         <v>2</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" s="2">
+        <v>13822</v>
+      </c>
+      <c r="I191" s="2">
+        <v>10824</v>
+      </c>
+      <c r="J191" s="3">
+        <v>2</v>
+      </c>
+      <c r="K191" s="3">
+        <v>3</v>
+      </c>
+      <c r="L191" s="3">
+        <v>4</v>
+      </c>
+      <c r="M191" s="3">
+        <v>5</v>
+      </c>
+      <c r="N191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="22">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5360,7 +9310,7 @@
         <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D192">
         <v>12</v>
@@ -5369,13 +9319,34 @@
         <v>3</v>
       </c>
       <c r="F192" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" s="2">
+        <v>10901</v>
+      </c>
+      <c r="I192" s="2">
+        <v>9997</v>
+      </c>
+      <c r="J192" s="3">
+        <v>3</v>
+      </c>
+      <c r="K192" s="3">
+        <v>2</v>
+      </c>
+      <c r="L192" s="3">
+        <v>4</v>
+      </c>
+      <c r="M192" s="3">
+        <v>4</v>
+      </c>
+      <c r="N192" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="22">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5383,7 +9354,7 @@
         <v>4</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D193">
         <v>12</v>
@@ -5392,13 +9363,34 @@
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" s="2">
+        <v>10901</v>
+      </c>
+      <c r="I193" s="2">
+        <v>9997</v>
+      </c>
+      <c r="J193" s="3">
+        <v>3</v>
+      </c>
+      <c r="K193" s="3">
+        <v>2</v>
+      </c>
+      <c r="L193" s="3">
+        <v>4</v>
+      </c>
+      <c r="M193" s="3">
+        <v>4</v>
+      </c>
+      <c r="N193" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="22">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5406,7 +9398,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D194">
         <v>6</v>
@@ -5415,13 +9407,34 @@
         <v>1</v>
       </c>
       <c r="F194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" s="2">
+        <v>12250</v>
+      </c>
+      <c r="I194" s="2">
+        <v>8671</v>
+      </c>
+      <c r="J194" s="3">
+        <v>3</v>
+      </c>
+      <c r="K194" s="3">
+        <v>2</v>
+      </c>
+      <c r="L194" s="3">
+        <v>3</v>
+      </c>
+      <c r="M194" s="3">
+        <v>4</v>
+      </c>
+      <c r="N194" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="22">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5429,7 +9442,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -5443,8 +9456,29 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" s="2">
+        <v>12112</v>
+      </c>
+      <c r="I195" s="2">
+        <v>9284</v>
+      </c>
+      <c r="J195" s="3">
+        <v>3</v>
+      </c>
+      <c r="K195" s="3">
+        <v>3</v>
+      </c>
+      <c r="L195" s="3">
+        <v>4</v>
+      </c>
+      <c r="M195" s="3">
+        <v>4</v>
+      </c>
+      <c r="N195" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="22">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5452,7 +9486,7 @@
         <v>4</v>
       </c>
       <c r="C196" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D196">
         <v>6</v>
@@ -5466,8 +9500,29 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" s="2">
+        <v>12127</v>
+      </c>
+      <c r="I196" s="2">
+        <v>8629</v>
+      </c>
+      <c r="J196" s="3">
+        <v>3</v>
+      </c>
+      <c r="K196" s="3">
+        <v>4</v>
+      </c>
+      <c r="L196" s="3">
+        <v>4</v>
+      </c>
+      <c r="M196" s="3">
+        <v>5</v>
+      </c>
+      <c r="N196" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="22">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5475,7 +9530,7 @@
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D197">
         <v>13</v>
@@ -5484,13 +9539,34 @@
         <v>2</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" s="2">
+        <v>13770</v>
+      </c>
+      <c r="I197" s="2">
+        <v>12100</v>
+      </c>
+      <c r="J197" s="3">
+        <v>6</v>
+      </c>
+      <c r="K197" s="3">
+        <v>4</v>
+      </c>
+      <c r="L197" s="3">
+        <v>4</v>
+      </c>
+      <c r="M197" s="3">
+        <v>5</v>
+      </c>
+      <c r="N197" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="22">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5498,7 +9574,7 @@
         <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -5512,8 +9588,29 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" s="2">
+        <v>16065</v>
+      </c>
+      <c r="I198" s="2">
+        <v>10343</v>
+      </c>
+      <c r="J198" s="3">
+        <v>6</v>
+      </c>
+      <c r="K198" s="3">
+        <v>1</v>
+      </c>
+      <c r="L198" s="3">
+        <v>4</v>
+      </c>
+      <c r="M198" s="3">
+        <v>4</v>
+      </c>
+      <c r="N198" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="22">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5521,7 +9618,7 @@
         <v>4</v>
       </c>
       <c r="C199" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D199">
         <v>2</v>
@@ -5530,13 +9627,34 @@
         <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" s="2">
+        <v>11637</v>
+      </c>
+      <c r="I199" s="2">
+        <v>9759</v>
+      </c>
+      <c r="J199" s="3">
+        <v>3</v>
+      </c>
+      <c r="K199" s="3">
+        <v>3</v>
+      </c>
+      <c r="L199" s="3">
+        <v>3</v>
+      </c>
+      <c r="M199" s="3">
+        <v>4</v>
+      </c>
+      <c r="N199" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="22">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5544,7 +9662,7 @@
         <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D200">
         <v>13</v>
@@ -5558,9 +9676,71 @@
       <c r="G200">
         <v>0</v>
       </c>
+      <c r="H200" s="2">
+        <v>13230</v>
+      </c>
+      <c r="I200" s="2">
+        <v>12100</v>
+      </c>
+      <c r="J200" s="3">
+        <v>6</v>
+      </c>
+      <c r="K200" s="3">
+        <v>4</v>
+      </c>
+      <c r="L200" s="3">
+        <v>4</v>
+      </c>
+      <c r="M200" s="3">
+        <v>4</v>
+      </c>
+      <c r="N200" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="22">
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" spans="1:14" ht="22">
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" spans="1:14" ht="22">
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" spans="1:14" ht="22">
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" spans="1:14" ht="22">
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" spans="1:14" ht="22">
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" spans="1:14" ht="22">
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" spans="1:14" ht="22">
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="8:9" ht="22">
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="8:9" ht="22">
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>